--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1871,7 +1871,7 @@
   </si>
   <si>
     <t>Cette ressource est-elle active?
-true  par défaut; false pour  indiquer que la ressource a été supprimés</t>
+true  par défaut; false pour indiquer que la ressource a été supprimée</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use.</t>
@@ -4485,7 +4485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>132</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>225</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>324</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>371</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>406</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>415</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>496</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>565</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>594</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>602</v>
       </c>
@@ -30267,7 +30267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="199" hidden="true">
+    <row r="199">
       <c r="A199" t="s" s="2">
         <v>636</v>
       </c>
@@ -30402,7 +30402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" hidden="true">
+    <row r="200">
       <c r="A200" t="s" s="2">
         <v>646</v>
       </c>
@@ -30670,7 +30670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
         <v>665</v>
       </c>
@@ -38708,7 +38708,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="262" hidden="true">
+    <row r="262">
       <c r="A262" t="s" s="2">
         <v>818</v>
       </c>
@@ -39250,7 +39250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="266" hidden="true">
+    <row r="266">
       <c r="A266" t="s" s="2">
         <v>823</v>
       </c>
@@ -41263,7 +41263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="281" hidden="true">
+    <row r="281">
       <c r="A281" t="s" s="2">
         <v>900</v>
       </c>
@@ -44743,7 +44743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="307" hidden="true">
+    <row r="307">
       <c r="A307" t="s" s="2">
         <v>959</v>
       </c>
@@ -44880,7 +44880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="308" hidden="true">
+    <row r="308">
       <c r="A308" t="s" s="2">
         <v>962</v>
       </c>
@@ -47173,7 +47173,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="325" hidden="true">
+    <row r="325">
       <c r="A325" t="s" s="2">
         <v>1002</v>
       </c>
@@ -47310,7 +47310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="326" hidden="true">
+    <row r="326">
       <c r="A326" t="s" s="2">
         <v>1007</v>
       </c>
@@ -47584,7 +47584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="328" hidden="true">
+    <row r="328">
       <c r="A328" t="s" s="2">
         <v>1011</v>
       </c>
@@ -49603,7 +49603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="343" hidden="true">
+    <row r="343">
       <c r="A343" t="s" s="2">
         <v>1033</v>
       </c>
@@ -49740,7 +49740,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="344" hidden="true">
+    <row r="344">
       <c r="A344" t="s" s="2">
         <v>1038</v>
       </c>
@@ -50822,7 +50822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="352" hidden="true">
+    <row r="352">
       <c r="A352" t="s" s="2">
         <v>1052</v>
       </c>
@@ -50959,12 +50959,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AU352">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15055" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15055" uniqueCount="1061">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2731,9 +2731,6 @@
   </si>
   <si>
     <t>Often, specific identities are assigned for the qualification.</t>
-  </si>
-  <si>
-    <t>Diplome.numeroDiplome</t>
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].id</t>
@@ -40439,22 +40436,22 @@
         <v>84</v>
       </c>
       <c r="AN274" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO274" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP274" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ274" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR274" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AS274" t="s" s="2">
         <v>875</v>
-      </c>
-      <c r="AO274" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP274" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ274" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR274" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AS274" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="AT274" t="s" s="2">
         <v>84</v>
@@ -40465,10 +40462,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -40494,10 +40491,10 @@
         <v>249</v>
       </c>
       <c r="L275" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="M275" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="M275" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -40527,11 +40524,11 @@
         <v>181</v>
       </c>
       <c r="Y275" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="Z275" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="Z275" t="s" s="2">
-        <v>881</v>
-      </c>
       <c r="AA275" t="s" s="2">
         <v>84</v>
       </c>
@@ -40548,7 +40545,7 @@
         <v>84</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>102</v>
@@ -40572,7 +40569,7 @@
         <v>84</v>
       </c>
       <c r="AN275" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AO275" t="s" s="2">
         <v>84</v>
@@ -40590,7 +40587,7 @@
         <v>862</v>
       </c>
       <c r="AT275" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AU275" t="s" s="2">
         <v>84</v>
@@ -40598,10 +40595,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -40627,14 +40624,14 @@
         <v>269</v>
       </c>
       <c r="L276" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="M276" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="M276" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="P276" t="s" s="2">
         <v>84</v>
@@ -40683,7 +40680,7 @@
         <v>84</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>85</v>
@@ -40722,10 +40719,10 @@
         <v>84</v>
       </c>
       <c r="AS276" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="AT276" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="AT276" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="AU276" t="s" s="2">
         <v>84</v>
@@ -40733,10 +40730,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -40762,10 +40759,10 @@
         <v>557</v>
       </c>
       <c r="L277" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M277" t="s" s="2">
         <v>891</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>892</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -40816,7 +40813,7 @@
         <v>84</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AG277" t="s" s="2">
         <v>85</v>
@@ -40855,7 +40852,7 @@
         <v>84</v>
       </c>
       <c r="AS277" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AT277" t="s" s="2">
         <v>84</v>
@@ -40866,13 +40863,13 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>856</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D278" t="s" s="2">
         <v>84</v>
@@ -40897,7 +40894,7 @@
         <v>857</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>859</v>
@@ -40975,7 +40972,7 @@
         <v>84</v>
       </c>
       <c r="AN278" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AO278" t="s" s="2">
         <v>84</v>
@@ -41001,7 +40998,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>864</v>
@@ -41134,7 +41131,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>865</v>
@@ -41265,13 +41262,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>865</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>84</v>
@@ -41293,13 +41290,13 @@
         <v>84</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>902</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="M281" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>904</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
@@ -41400,10 +41397,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="B282" t="s" s="2">
         <v>905</v>
-      </c>
-      <c r="B282" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -41533,10 +41530,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="B283" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="B283" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -41668,13 +41665,13 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="B284" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="C284" t="s" s="2">
         <v>909</v>
-      </c>
-      <c r="B284" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="C284" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="D284" t="s" s="2">
         <v>84</v>
@@ -41777,7 +41774,7 @@
         <v>84</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AO284" t="s" s="2">
         <v>84</v>
@@ -41803,10 +41800,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="B285" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="B285" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -41936,10 +41933,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="B286" t="s" s="2">
         <v>914</v>
-      </c>
-      <c r="B286" t="s" s="2">
-        <v>915</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -42069,10 +42066,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="B287" t="s" s="2">
         <v>916</v>
-      </c>
-      <c r="B287" t="s" s="2">
-        <v>917</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -42112,7 +42109,7 @@
       </c>
       <c r="Q287" s="2"/>
       <c r="R287" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="S287" t="s" s="2">
         <v>84</v>
@@ -42204,10 +42201,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="B288" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="B288" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -42267,7 +42264,7 @@
       </c>
       <c r="Y288" s="2"/>
       <c r="Z288" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AA288" t="s" s="2">
         <v>84</v>
@@ -42335,13 +42332,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="C289" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="B289" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="C289" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>84</v>
@@ -42444,7 +42441,7 @@
         <v>84</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AO289" t="s" s="2">
         <v>84</v>
@@ -42470,10 +42467,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -42603,10 +42600,10 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -42736,10 +42733,10 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -42779,7 +42776,7 @@
       </c>
       <c r="Q292" s="2"/>
       <c r="R292" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S292" t="s" s="2">
         <v>84</v>
@@ -42871,10 +42868,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -42934,7 +42931,7 @@
       </c>
       <c r="Y293" s="2"/>
       <c r="Z293" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AA293" t="s" s="2">
         <v>84</v>
@@ -43002,13 +42999,13 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="B294" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="C294" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="B294" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="C294" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="D294" t="s" s="2">
         <v>84</v>
@@ -43111,7 +43108,7 @@
         <v>84</v>
       </c>
       <c r="AN294" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AO294" t="s" s="2">
         <v>84</v>
@@ -43137,10 +43134,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -43270,10 +43267,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -43403,10 +43400,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -43446,7 +43443,7 @@
       </c>
       <c r="Q297" s="2"/>
       <c r="R297" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S297" t="s" s="2">
         <v>84</v>
@@ -43538,10 +43535,10 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -43601,7 +43598,7 @@
       </c>
       <c r="Y298" s="2"/>
       <c r="Z298" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AA298" t="s" s="2">
         <v>84</v>
@@ -43669,10 +43666,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="B299" t="s" s="2">
         <v>937</v>
-      </c>
-      <c r="B299" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -43712,7 +43709,7 @@
       </c>
       <c r="Q299" s="2"/>
       <c r="R299" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="S299" t="s" s="2">
         <v>84</v>
@@ -43804,10 +43801,10 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="B300" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="B300" t="s" s="2">
-        <v>941</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -43937,7 +43934,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>866</v>
@@ -44074,7 +44071,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>871</v>
@@ -44198,7 +44195,7 @@
         <v>84</v>
       </c>
       <c r="AS302" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AT302" t="s" s="2">
         <v>84</v>
@@ -44209,10 +44206,10 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -44238,10 +44235,10 @@
         <v>249</v>
       </c>
       <c r="L303" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="M303" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="M303" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
@@ -44271,11 +44268,11 @@
         <v>181</v>
       </c>
       <c r="Y303" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="Z303" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="Z303" t="s" s="2">
-        <v>881</v>
-      </c>
       <c r="AA303" t="s" s="2">
         <v>84</v>
       </c>
@@ -44292,7 +44289,7 @@
         <v>84</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>102</v>
@@ -44334,7 +44331,7 @@
         <v>862</v>
       </c>
       <c r="AT303" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AU303" t="s" s="2">
         <v>84</v>
@@ -44342,10 +44339,10 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="B304" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="B304" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -44475,10 +44472,10 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="B305" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="B305" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -44610,10 +44607,10 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="B306" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="B306" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -44639,16 +44636,16 @@
         <v>169</v>
       </c>
       <c r="L306" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="M306" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="M306" t="s" s="2">
+      <c r="N306" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="N306" t="s" s="2">
+      <c r="O306" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="O306" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="P306" t="s" s="2">
         <v>84</v>
@@ -44692,10 +44689,10 @@
         <v>84</v>
       </c>
       <c r="AE306" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="AF306" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="AF306" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="AG306" t="s" s="2">
         <v>85</v>
@@ -44731,10 +44728,10 @@
         <v>84</v>
       </c>
       <c r="AR306" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AS306" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="AS306" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="AT306" t="s" s="2">
         <v>84</v>
@@ -44745,13 +44742,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="B307" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="C307" t="s" s="2">
         <v>959</v>
-      </c>
-      <c r="B307" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="C307" t="s" s="2">
-        <v>960</v>
       </c>
       <c r="D307" t="s" s="2">
         <v>84</v>
@@ -44776,16 +44773,16 @@
         <v>169</v>
       </c>
       <c r="L307" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="M307" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="M307" t="s" s="2">
+      <c r="N307" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="N307" t="s" s="2">
+      <c r="O307" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="O307" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="P307" t="s" s="2">
         <v>84</v>
@@ -44814,7 +44811,7 @@
       </c>
       <c r="Y307" s="2"/>
       <c r="Z307" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AA307" t="s" s="2">
         <v>84</v>
@@ -44832,7 +44829,7 @@
         <v>84</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AG307" t="s" s="2">
         <v>85</v>
@@ -44868,10 +44865,10 @@
         <v>84</v>
       </c>
       <c r="AR307" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AS307" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="AS307" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="AT307" t="s" s="2">
         <v>84</v>
@@ -44882,13 +44879,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D308" t="s" s="2">
         <v>84</v>
@@ -44913,16 +44910,16 @@
         <v>169</v>
       </c>
       <c r="L308" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="M308" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="M308" t="s" s="2">
+      <c r="N308" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="N308" t="s" s="2">
+      <c r="O308" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="O308" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="P308" t="s" s="2">
         <v>84</v>
@@ -44951,7 +44948,7 @@
       </c>
       <c r="Y308" s="2"/>
       <c r="Z308" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AA308" t="s" s="2">
         <v>84</v>
@@ -44969,7 +44966,7 @@
         <v>84</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AG308" t="s" s="2">
         <v>85</v>
@@ -45005,10 +45002,10 @@
         <v>84</v>
       </c>
       <c r="AR308" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AS308" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="AS308" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="AT308" t="s" s="2">
         <v>84</v>
@@ -45019,10 +45016,10 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="B309" t="s" s="2">
         <v>964</v>
-      </c>
-      <c r="B309" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -45048,16 +45045,16 @@
         <v>116</v>
       </c>
       <c r="L309" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="M309" t="s" s="2">
         <v>966</v>
       </c>
-      <c r="M309" t="s" s="2">
+      <c r="N309" t="s" s="2">
         <v>967</v>
       </c>
-      <c r="N309" t="s" s="2">
+      <c r="O309" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="O309" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="P309" t="s" s="2">
         <v>84</v>
@@ -45106,7 +45103,7 @@
         <v>84</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AG309" t="s" s="2">
         <v>85</v>
@@ -45142,10 +45139,10 @@
         <v>84</v>
       </c>
       <c r="AR309" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="AS309" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="AS309" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="AT309" t="s" s="2">
         <v>84</v>
@@ -45156,10 +45153,10 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -45185,14 +45182,14 @@
         <v>269</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="N310" s="2"/>
       <c r="O310" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="P310" t="s" s="2">
         <v>84</v>
@@ -45241,7 +45238,7 @@
         <v>84</v>
       </c>
       <c r="AF310" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AG310" t="s" s="2">
         <v>85</v>
@@ -45280,10 +45277,10 @@
         <v>84</v>
       </c>
       <c r="AS310" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="AT310" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="AT310" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="AU310" t="s" s="2">
         <v>84</v>
@@ -45291,10 +45288,10 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="B311" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="B311" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -45424,10 +45421,10 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="B312" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="B312" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -45559,10 +45556,10 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="B313" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="B313" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -45588,7 +45585,7 @@
         <v>276</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M313" t="s" s="2">
         <v>278</v>
@@ -45668,7 +45665,7 @@
         <v>84</v>
       </c>
       <c r="AN313" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AO313" t="s" s="2">
         <v>84</v>
@@ -45694,10 +45691,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="B314" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="B314" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -45723,7 +45720,7 @@
         <v>276</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="M314" t="s" s="2">
         <v>288</v>
@@ -45805,7 +45802,7 @@
         <v>84</v>
       </c>
       <c r="AN314" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AO314" t="s" s="2">
         <v>84</v>
@@ -45831,10 +45828,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -45857,13 +45854,13 @@
         <v>84</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L315" t="s" s="2">
-        <v>989</v>
-      </c>
       <c r="M315" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="N315" s="2"/>
       <c r="O315" s="2"/>
@@ -45914,7 +45911,7 @@
         <v>84</v>
       </c>
       <c r="AF315" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AG315" t="s" s="2">
         <v>85</v>
@@ -45938,7 +45935,7 @@
         <v>84</v>
       </c>
       <c r="AN315" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AO315" t="s" s="2">
         <v>84</v>
@@ -45953,7 +45950,7 @@
         <v>84</v>
       </c>
       <c r="AS315" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AT315" t="s" s="2">
         <v>84</v>
@@ -45964,13 +45961,13 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>856</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D316" t="s" s="2">
         <v>84</v>
@@ -45995,7 +45992,7 @@
         <v>857</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M316" t="s" s="2">
         <v>859</v>
@@ -46099,7 +46096,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>864</v>
@@ -46232,7 +46229,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>865</v>
@@ -46367,7 +46364,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>866</v>
@@ -46504,7 +46501,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>871</v>
@@ -46628,7 +46625,7 @@
         <v>84</v>
       </c>
       <c r="AS320" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AT320" t="s" s="2">
         <v>84</v>
@@ -46639,10 +46636,10 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -46668,10 +46665,10 @@
         <v>249</v>
       </c>
       <c r="L321" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="M321" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="M321" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -46701,11 +46698,11 @@
         <v>181</v>
       </c>
       <c r="Y321" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="Z321" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="Z321" t="s" s="2">
-        <v>881</v>
-      </c>
       <c r="AA321" t="s" s="2">
         <v>84</v>
       </c>
@@ -46722,7 +46719,7 @@
         <v>84</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AG321" t="s" s="2">
         <v>102</v>
@@ -46764,7 +46761,7 @@
         <v>862</v>
       </c>
       <c r="AT321" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AU321" t="s" s="2">
         <v>84</v>
@@ -46772,10 +46769,10 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -46905,10 +46902,10 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -47040,10 +47037,10 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -47069,16 +47066,16 @@
         <v>169</v>
       </c>
       <c r="L324" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="M324" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="M324" t="s" s="2">
+      <c r="N324" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="N324" t="s" s="2">
+      <c r="O324" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="O324" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="P324" t="s" s="2">
         <v>84</v>
@@ -47122,10 +47119,10 @@
         <v>84</v>
       </c>
       <c r="AE324" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="AF324" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="AF324" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="AG324" t="s" s="2">
         <v>85</v>
@@ -47161,10 +47158,10 @@
         <v>84</v>
       </c>
       <c r="AR324" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AS324" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="AS324" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="AT324" t="s" s="2">
         <v>84</v>
@@ -47175,13 +47172,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="C325" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="B325" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="C325" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="D325" t="s" s="2">
         <v>84</v>
@@ -47206,16 +47203,16 @@
         <v>169</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M325" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="N325" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="N325" t="s" s="2">
+      <c r="O325" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="O325" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="P325" t="s" s="2">
         <v>84</v>
@@ -47244,7 +47241,7 @@
       </c>
       <c r="Y325" s="2"/>
       <c r="Z325" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AA325" t="s" s="2">
         <v>84</v>
@@ -47262,7 +47259,7 @@
         <v>84</v>
       </c>
       <c r="AF325" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AG325" t="s" s="2">
         <v>85</v>
@@ -47280,7 +47277,7 @@
         <v>84</v>
       </c>
       <c r="AL325" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>84</v>
@@ -47298,10 +47295,10 @@
         <v>84</v>
       </c>
       <c r="AR325" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AS325" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="AS325" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="AT325" t="s" s="2">
         <v>84</v>
@@ -47312,10 +47309,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C326" t="s" s="2">
         <v>361</v>
@@ -47343,16 +47340,16 @@
         <v>169</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M326" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="N326" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="N326" t="s" s="2">
+      <c r="O326" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="O326" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="P326" t="s" s="2">
         <v>84</v>
@@ -47399,7 +47396,7 @@
         <v>84</v>
       </c>
       <c r="AF326" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AG326" t="s" s="2">
         <v>85</v>
@@ -47417,7 +47414,7 @@
         <v>84</v>
       </c>
       <c r="AL326" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AM326" t="s" s="2">
         <v>84</v>
@@ -47435,10 +47432,10 @@
         <v>84</v>
       </c>
       <c r="AR326" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AS326" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="AS326" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="AT326" t="s" s="2">
         <v>84</v>
@@ -47449,10 +47446,10 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -47478,16 +47475,16 @@
         <v>116</v>
       </c>
       <c r="L327" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="M327" t="s" s="2">
         <v>966</v>
       </c>
-      <c r="M327" t="s" s="2">
+      <c r="N327" t="s" s="2">
         <v>967</v>
       </c>
-      <c r="N327" t="s" s="2">
+      <c r="O327" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="O327" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="P327" t="s" s="2">
         <v>84</v>
@@ -47536,7 +47533,7 @@
         <v>84</v>
       </c>
       <c r="AF327" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AG327" t="s" s="2">
         <v>85</v>
@@ -47572,10 +47569,10 @@
         <v>84</v>
       </c>
       <c r="AR327" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="AS327" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="AS327" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="AT327" t="s" s="2">
         <v>84</v>
@@ -47586,10 +47583,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -47615,14 +47612,14 @@
         <v>269</v>
       </c>
       <c r="L328" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="M328" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="M328" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="P328" t="s" s="2">
         <v>84</v>
@@ -47671,7 +47668,7 @@
         <v>84</v>
       </c>
       <c r="AF328" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AG328" t="s" s="2">
         <v>85</v>
@@ -47710,10 +47707,10 @@
         <v>84</v>
       </c>
       <c r="AS328" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="AT328" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="AT328" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="AU328" t="s" s="2">
         <v>84</v>
@@ -47721,10 +47718,10 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -47854,10 +47851,10 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -47989,10 +47986,10 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -48018,7 +48015,7 @@
         <v>276</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M331" t="s" s="2">
         <v>278</v>
@@ -48092,7 +48089,7 @@
         <v>84</v>
       </c>
       <c r="AL331" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AM331" t="s" s="2">
         <v>84</v>
@@ -48124,10 +48121,10 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -48153,7 +48150,7 @@
         <v>276</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M332" t="s" s="2">
         <v>288</v>
@@ -48229,7 +48226,7 @@
         <v>84</v>
       </c>
       <c r="AL332" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AM332" t="s" s="2">
         <v>84</v>
@@ -48261,10 +48258,10 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -48290,10 +48287,10 @@
         <v>557</v>
       </c>
       <c r="L333" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M333" t="s" s="2">
         <v>891</v>
-      </c>
-      <c r="M333" t="s" s="2">
-        <v>892</v>
       </c>
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
@@ -48344,7 +48341,7 @@
         <v>84</v>
       </c>
       <c r="AF333" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AG333" t="s" s="2">
         <v>85</v>
@@ -48383,7 +48380,7 @@
         <v>84</v>
       </c>
       <c r="AS333" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AT333" t="s" s="2">
         <v>84</v>
@@ -48394,13 +48391,13 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>856</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D334" t="s" s="2">
         <v>84</v>
@@ -48425,7 +48422,7 @@
         <v>857</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M334" t="s" s="2">
         <v>859</v>
@@ -48529,7 +48526,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>864</v>
@@ -48662,7 +48659,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>865</v>
@@ -48797,7 +48794,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>866</v>
@@ -48934,7 +48931,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>871</v>
@@ -49058,7 +49055,7 @@
         <v>84</v>
       </c>
       <c r="AS338" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AT338" t="s" s="2">
         <v>84</v>
@@ -49069,10 +49066,10 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -49098,10 +49095,10 @@
         <v>249</v>
       </c>
       <c r="L339" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="M339" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="M339" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
@@ -49131,11 +49128,11 @@
         <v>181</v>
       </c>
       <c r="Y339" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="Z339" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="Z339" t="s" s="2">
-        <v>881</v>
-      </c>
       <c r="AA339" t="s" s="2">
         <v>84</v>
       </c>
@@ -49152,7 +49149,7 @@
         <v>84</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AG339" t="s" s="2">
         <v>102</v>
@@ -49167,7 +49164,7 @@
         <v>114</v>
       </c>
       <c r="AK339" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AL339" t="s" s="2">
         <v>84</v>
@@ -49194,7 +49191,7 @@
         <v>862</v>
       </c>
       <c r="AT339" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AU339" t="s" s="2">
         <v>84</v>
@@ -49202,10 +49199,10 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -49335,10 +49332,10 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -49470,10 +49467,10 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -49499,16 +49496,16 @@
         <v>169</v>
       </c>
       <c r="L342" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="M342" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="M342" t="s" s="2">
+      <c r="N342" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="N342" t="s" s="2">
+      <c r="O342" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="O342" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="P342" t="s" s="2">
         <v>84</v>
@@ -49552,10 +49549,10 @@
         <v>84</v>
       </c>
       <c r="AE342" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="AF342" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="AF342" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="AG342" t="s" s="2">
         <v>85</v>
@@ -49591,10 +49588,10 @@
         <v>84</v>
       </c>
       <c r="AR342" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AS342" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="AS342" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="AT342" t="s" s="2">
         <v>84</v>
@@ -49605,13 +49602,13 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="C343" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="B343" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="C343" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="D343" t="s" s="2">
         <v>84</v>
@@ -49636,16 +49633,16 @@
         <v>169</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M343" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="N343" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="N343" t="s" s="2">
+      <c r="O343" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="O343" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="P343" t="s" s="2">
         <v>84</v>
@@ -49674,7 +49671,7 @@
       </c>
       <c r="Y343" s="2"/>
       <c r="Z343" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA343" t="s" s="2">
         <v>84</v>
@@ -49692,7 +49689,7 @@
         <v>84</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AG343" t="s" s="2">
         <v>85</v>
@@ -49707,7 +49704,7 @@
         <v>114</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AL343" t="s" s="2">
         <v>84</v>
@@ -49728,10 +49725,10 @@
         <v>84</v>
       </c>
       <c r="AR343" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AS343" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="AS343" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="AT343" t="s" s="2">
         <v>84</v>
@@ -49742,13 +49739,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D344" t="s" s="2">
         <v>84</v>
@@ -49773,16 +49770,16 @@
         <v>169</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M344" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="N344" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="N344" t="s" s="2">
+      <c r="O344" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="O344" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="P344" t="s" s="2">
         <v>84</v>
@@ -49811,7 +49808,7 @@
       </c>
       <c r="Y344" s="2"/>
       <c r="Z344" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA344" t="s" s="2">
         <v>84</v>
@@ -49829,7 +49826,7 @@
         <v>84</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AG344" t="s" s="2">
         <v>85</v>
@@ -49865,10 +49862,10 @@
         <v>84</v>
       </c>
       <c r="AR344" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AS344" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="AS344" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="AT344" t="s" s="2">
         <v>84</v>
@@ -49879,10 +49876,10 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -49908,16 +49905,16 @@
         <v>116</v>
       </c>
       <c r="L345" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="M345" t="s" s="2">
         <v>966</v>
       </c>
-      <c r="M345" t="s" s="2">
+      <c r="N345" t="s" s="2">
         <v>967</v>
       </c>
-      <c r="N345" t="s" s="2">
+      <c r="O345" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="O345" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="P345" t="s" s="2">
         <v>84</v>
@@ -49966,7 +49963,7 @@
         <v>84</v>
       </c>
       <c r="AF345" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AG345" t="s" s="2">
         <v>85</v>
@@ -50002,10 +49999,10 @@
         <v>84</v>
       </c>
       <c r="AR345" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="AS345" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="AS345" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="AT345" t="s" s="2">
         <v>84</v>
@@ -50016,10 +50013,10 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
@@ -50045,14 +50042,14 @@
         <v>269</v>
       </c>
       <c r="L346" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="M346" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="M346" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="P346" t="s" s="2">
         <v>84</v>
@@ -50101,7 +50098,7 @@
         <v>84</v>
       </c>
       <c r="AF346" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AG346" t="s" s="2">
         <v>85</v>
@@ -50140,10 +50137,10 @@
         <v>84</v>
       </c>
       <c r="AS346" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="AT346" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="AT346" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="AU346" t="s" s="2">
         <v>84</v>
@@ -50151,10 +50148,10 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -50284,10 +50281,10 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" t="s" s="2">
@@ -50419,10 +50416,10 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" t="s" s="2">
@@ -50448,7 +50445,7 @@
         <v>276</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M349" t="s" s="2">
         <v>278</v>
@@ -50519,7 +50516,7 @@
         <v>114</v>
       </c>
       <c r="AK349" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AL349" t="s" s="2">
         <v>84</v>
@@ -50554,10 +50551,10 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" t="s" s="2">
@@ -50583,7 +50580,7 @@
         <v>276</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M350" t="s" s="2">
         <v>288</v>
@@ -50656,7 +50653,7 @@
         <v>114</v>
       </c>
       <c r="AK350" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AL350" t="s" s="2">
         <v>84</v>
@@ -50691,10 +50688,10 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
@@ -50720,10 +50717,10 @@
         <v>557</v>
       </c>
       <c r="L351" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M351" t="s" s="2">
         <v>891</v>
-      </c>
-      <c r="M351" t="s" s="2">
-        <v>892</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
@@ -50774,7 +50771,7 @@
         <v>84</v>
       </c>
       <c r="AF351" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AG351" t="s" s="2">
         <v>85</v>
@@ -50813,7 +50810,7 @@
         <v>84</v>
       </c>
       <c r="AS351" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AT351" t="s" s="2">
         <v>84</v>
@@ -50824,10 +50821,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" t="s" s="2">
@@ -50850,19 +50847,19 @@
         <v>84</v>
       </c>
       <c r="K352" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="L352" t="s" s="2">
         <v>1053</v>
       </c>
-      <c r="L352" t="s" s="2">
+      <c r="M352" t="s" s="2">
         <v>1054</v>
       </c>
-      <c r="M352" t="s" s="2">
+      <c r="N352" t="s" s="2">
         <v>1055</v>
       </c>
-      <c r="N352" t="s" s="2">
+      <c r="O352" t="s" s="2">
         <v>1056</v>
-      </c>
-      <c r="O352" t="s" s="2">
-        <v>1057</v>
       </c>
       <c r="P352" t="s" s="2">
         <v>84</v>
@@ -50891,7 +50888,7 @@
       </c>
       <c r="Y352" s="2"/>
       <c r="Z352" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA352" t="s" s="2">
         <v>84</v>
@@ -50909,7 +50906,7 @@
         <v>84</v>
       </c>
       <c r="AF352" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AG352" t="s" s="2">
         <v>85</v>
@@ -50945,13 +50942,13 @@
         <v>84</v>
       </c>
       <c r="AR352" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="AS352" t="s" s="2">
         <v>1059</v>
       </c>
-      <c r="AS352" t="s" s="2">
+      <c r="AT352" t="s" s="2">
         <v>1060</v>
-      </c>
-      <c r="AT352" t="s" s="2">
-        <v>1061</v>
       </c>
       <c r="AU352" t="s" s="2">
         <v>84</v>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1870,7 +1870,7 @@
     <t>Practitioner.active</t>
   </si>
   <si>
-    <t>Cette ressource est-elle active?
+    <t>Cette ressource est-elle active ?
 true  par défaut; false pour indiquer que la ressource a été supprimée</t>
   </si>
   <si>
